--- a/data/external/RKI/Nowcasting_Zahlen.xlsx
+++ b/data/external/RKI/Nowcasting_Zahlen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="885" windowWidth="27975" windowHeight="13455" activeTab="1"/>
+    <workbookView xWindow="510" yWindow="885" windowWidth="27975" windowHeight="13455"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterungen" sheetId="2" r:id="rId1"/>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">Achtung: Die Schätzwerte zur Anzahl von Neuerkrankungen und der R-Schätzung zu früheren Tagen können von den Angaben in früheren Lageberichten abweichen, </t>
   </si>
   <si>
-    <t>weil täglich der Gesamtverlauf aufgrund der aktuell verfügbaren Daten neu geschätzt wird</t>
+    <t>weil täglich der Gesamtverlauf aufgrund der aktuell verfügbaren Daten neu geschätzt wird.</t>
   </si>
   <si>
     <t xml:space="preserve">Zu Hintergrund der Methodik siehe  https://www.rki.de/DE/Content/Infekt/EpidBull/Archiv/2020/Ausgaben/17_20.pdf?__blob=publicationFile  </t>
   </si>
   <si>
-    <t>Datenstand: 16.05.2020, 0 Uhr</t>
+    <t>Datenstand: 11.06.2020, 0 Uhr</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 16. Mai 2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 11. Juni 2020 dargestellten Nowcasting-Kurve.</t>
   </si>
 </sst>
 </file>
@@ -104,15 +104,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,23 +133,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Standard 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,61 +541,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="4"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -505,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -516,44 +889,44 @@
     <col min="1" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="165">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="90">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -562,22 +935,22 @@
         <v>43892</v>
       </c>
       <c r="B2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -585,22 +958,22 @@
         <v>43893</v>
       </c>
       <c r="B3">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C3">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D3">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E3">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F3">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G3">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -608,22 +981,22 @@
         <v>43894</v>
       </c>
       <c r="B4">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C4">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D4">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E4">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F4">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G4">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -631,22 +1004,22 @@
         <v>43895</v>
       </c>
       <c r="B5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C5">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D5">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E5">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F5">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G5">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -654,40 +1027,40 @@
         <v>43896</v>
       </c>
       <c r="B6">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C6">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D6">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E6">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F6">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G6">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H6">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="I6">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="J6">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="K6">
-        <v>2.3199999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="L6">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="M6">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -695,13 +1068,13 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C7">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D7">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="E7">
         <v>677</v>
@@ -710,25 +1083,25 @@
         <v>654</v>
       </c>
       <c r="G7">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H7">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I7">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="K7">
-        <v>2.5299999999999998</v>
+        <v>2.56</v>
       </c>
       <c r="L7">
-        <v>2.4700000000000002</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="M7">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -736,40 +1109,40 @@
         <v>43898</v>
       </c>
       <c r="B8">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="C8">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="D8">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="E8">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F8">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="G8">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H8">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="I8">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="J8">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="K8">
+        <v>2.93</v>
+      </c>
+      <c r="L8">
         <v>2.88</v>
       </c>
-      <c r="L8">
-        <v>2.82</v>
-      </c>
       <c r="M8">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -777,40 +1150,40 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="C9">
-        <v>1945</v>
+        <v>1965</v>
       </c>
       <c r="D9">
-        <v>2029</v>
+        <v>2046</v>
       </c>
       <c r="E9">
-        <v>1266</v>
+        <v>1276</v>
       </c>
       <c r="F9">
-        <v>1234</v>
+        <v>1244</v>
       </c>
       <c r="G9">
-        <v>1300</v>
+        <v>1307</v>
       </c>
       <c r="H9">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="I9">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="J9">
-        <v>3.24</v>
+        <v>3.29</v>
       </c>
       <c r="K9">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="L9">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="M9">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -818,40 +1191,40 @@
         <v>43900</v>
       </c>
       <c r="B10">
-        <v>2558</v>
+        <v>2571</v>
       </c>
       <c r="C10">
-        <v>2513</v>
+        <v>2523</v>
       </c>
       <c r="D10">
-        <v>2607</v>
+        <v>2613</v>
       </c>
       <c r="E10">
-        <v>1715</v>
+        <v>1727</v>
       </c>
       <c r="F10">
-        <v>1677</v>
+        <v>1690</v>
       </c>
       <c r="G10">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H10">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="I10">
+        <v>3.3</v>
+      </c>
+      <c r="J10">
+        <v>3.45</v>
+      </c>
+      <c r="K10">
+        <v>3.2</v>
+      </c>
+      <c r="L10">
+        <v>3.16</v>
+      </c>
+      <c r="M10">
         <v>3.25</v>
-      </c>
-      <c r="J10">
-        <v>3.42</v>
-      </c>
-      <c r="K10">
-        <v>3.17</v>
-      </c>
-      <c r="L10">
-        <v>3.12</v>
-      </c>
-      <c r="M10">
-        <v>3.22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -859,40 +1232,40 @@
         <v>43901</v>
       </c>
       <c r="B11">
-        <v>3223</v>
+        <v>3245</v>
       </c>
       <c r="C11">
-        <v>3171</v>
+        <v>3190</v>
       </c>
       <c r="D11">
-        <v>3271</v>
+        <v>3295</v>
       </c>
       <c r="E11">
-        <v>2275</v>
+        <v>2291</v>
       </c>
       <c r="F11">
-        <v>2231</v>
+        <v>2247</v>
       </c>
       <c r="G11">
-        <v>2318</v>
+        <v>2331</v>
       </c>
       <c r="H11">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="I11">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="J11">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="K11">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="L11">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="M11">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -900,28 +1273,28 @@
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3595</v>
+        <v>3607</v>
       </c>
       <c r="C12">
-        <v>3538</v>
+        <v>3548</v>
       </c>
       <c r="D12">
-        <v>3651</v>
+        <v>3660</v>
       </c>
       <c r="E12">
-        <v>2840</v>
+        <v>2857</v>
       </c>
       <c r="F12">
-        <v>2791</v>
+        <v>2806</v>
       </c>
       <c r="G12">
-        <v>2889</v>
+        <v>2903</v>
       </c>
       <c r="H12">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="I12">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="J12">
         <v>3.23</v>
@@ -930,7 +1303,7 @@
         <v>2.84</v>
       </c>
       <c r="L12">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="M12">
         <v>2.87</v>
@@ -941,31 +1314,31 @@
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="C13">
-        <v>4321</v>
+        <v>4325</v>
       </c>
       <c r="D13">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="E13">
-        <v>3439</v>
+        <v>3451</v>
       </c>
       <c r="F13">
-        <v>3385</v>
+        <v>3396</v>
       </c>
       <c r="G13">
-        <v>3492</v>
+        <v>3502</v>
       </c>
       <c r="H13">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="I13">
         <v>2.67</v>
       </c>
       <c r="J13">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="K13">
         <v>2.5099999999999998</v>
@@ -974,7 +1347,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="M13">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -982,40 +1355,40 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4477</v>
+        <v>4466</v>
       </c>
       <c r="C14">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="D14">
-        <v>4536</v>
+        <v>4516</v>
       </c>
       <c r="E14">
-        <v>3919</v>
+        <v>3925</v>
       </c>
       <c r="F14">
-        <v>3860</v>
+        <v>3869</v>
       </c>
       <c r="G14">
-        <v>3974</v>
+        <v>3977</v>
       </c>
       <c r="H14">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="I14">
         <v>2.25</v>
       </c>
       <c r="J14">
-        <v>2.3199999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K14">
+        <v>2.19</v>
+      </c>
+      <c r="L14">
+        <v>2.17</v>
+      </c>
+      <c r="M14">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="L14">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="M14">
-        <v>2.21</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1023,40 +1396,40 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4713</v>
+        <v>4717</v>
       </c>
       <c r="C15">
-        <v>4647</v>
+        <v>4656</v>
       </c>
       <c r="D15">
-        <v>4778</v>
+        <v>4779</v>
       </c>
       <c r="E15">
-        <v>4291</v>
+        <v>4293</v>
       </c>
       <c r="F15">
-        <v>4229</v>
+        <v>4235</v>
       </c>
       <c r="G15">
-        <v>4351</v>
+        <v>4348</v>
       </c>
       <c r="H15">
+        <v>1.87</v>
+      </c>
+      <c r="I15">
+        <v>1.85</v>
+      </c>
+      <c r="J15">
         <v>1.89</v>
       </c>
-      <c r="I15">
-        <v>1.86</v>
-      </c>
-      <c r="J15">
-        <v>1.91</v>
-      </c>
       <c r="K15">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1.99</v>
       </c>
       <c r="M15">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1064,22 +1437,22 @@
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6019</v>
+        <v>6043</v>
       </c>
       <c r="C16">
-        <v>5954</v>
+        <v>5975</v>
       </c>
       <c r="D16">
-        <v>6087</v>
+        <v>6122</v>
       </c>
       <c r="E16">
-        <v>4897</v>
+        <v>4902</v>
       </c>
       <c r="F16">
-        <v>4833</v>
+        <v>4842</v>
       </c>
       <c r="G16">
-        <v>4960</v>
+        <v>4964</v>
       </c>
       <c r="H16">
         <v>1.72</v>
@@ -1088,7 +1461,7 @@
         <v>1.7</v>
       </c>
       <c r="J16">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="K16">
         <v>1.75</v>
@@ -1097,7 +1470,7 @@
         <v>1.74</v>
       </c>
       <c r="M16">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1105,25 +1478,25 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5261</v>
+        <v>5252</v>
       </c>
       <c r="C17">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="D17">
-        <v>5338</v>
+        <v>5314</v>
       </c>
       <c r="E17">
-        <v>5117</v>
+        <v>5119</v>
       </c>
       <c r="F17">
-        <v>5052</v>
+        <v>5059</v>
       </c>
       <c r="G17">
-        <v>5185</v>
+        <v>5182</v>
       </c>
       <c r="H17">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I17">
         <v>1.47</v>
@@ -1132,13 +1505,13 @@
         <v>1.5</v>
       </c>
       <c r="K17">
+        <v>1.56</v>
+      </c>
+      <c r="L17">
+        <v>1.55</v>
+      </c>
+      <c r="M17">
         <v>1.57</v>
-      </c>
-      <c r="L17">
-        <v>1.56</v>
-      </c>
-      <c r="M17">
-        <v>1.58</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1146,28 +1519,28 @@
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5315</v>
+        <v>5327</v>
       </c>
       <c r="C18">
-        <v>5249</v>
+        <v>5268</v>
       </c>
       <c r="D18">
-        <v>5379</v>
+        <v>5392</v>
       </c>
       <c r="E18">
-        <v>5327</v>
+        <v>5335</v>
       </c>
       <c r="F18">
-        <v>5261</v>
+        <v>5273</v>
       </c>
       <c r="G18">
-        <v>5395</v>
+        <v>5401</v>
       </c>
       <c r="H18">
         <v>1.36</v>
       </c>
       <c r="I18">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J18">
         <v>1.37</v>
@@ -1179,7 +1552,7 @@
         <v>1.39</v>
       </c>
       <c r="M18">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1187,22 +1560,22 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4727</v>
+        <v>4739</v>
       </c>
       <c r="C19">
-        <v>4671</v>
+        <v>4684</v>
       </c>
       <c r="D19">
-        <v>4791</v>
+        <v>4806</v>
       </c>
       <c r="E19">
-        <v>5331</v>
+        <v>5340</v>
       </c>
       <c r="F19">
-        <v>5267</v>
+        <v>5280</v>
       </c>
       <c r="G19">
-        <v>5399</v>
+        <v>5408</v>
       </c>
       <c r="H19">
         <v>1.24</v>
@@ -1211,7 +1584,7 @@
         <v>1.23</v>
       </c>
       <c r="J19">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K19">
         <v>1.24</v>
@@ -1228,22 +1601,22 @@
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5306</v>
+        <v>5311</v>
       </c>
       <c r="C20">
-        <v>5241</v>
+        <v>5243</v>
       </c>
       <c r="D20">
-        <v>5377</v>
+        <v>5384</v>
       </c>
       <c r="E20">
-        <v>5152</v>
+        <v>5157</v>
       </c>
       <c r="F20">
-        <v>5089</v>
+        <v>5097</v>
       </c>
       <c r="G20">
-        <v>5221</v>
+        <v>5224</v>
       </c>
       <c r="H20">
         <v>1.05</v>
@@ -1261,7 +1634,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M20">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1269,22 +1642,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4443</v>
+        <v>4434</v>
       </c>
       <c r="C21">
-        <v>4386</v>
+        <v>4362</v>
       </c>
       <c r="D21">
-        <v>4507</v>
+        <v>4485</v>
       </c>
       <c r="E21">
-        <v>4948</v>
+        <v>4952</v>
       </c>
       <c r="F21">
-        <v>4887</v>
+        <v>4889</v>
       </c>
       <c r="G21">
-        <v>5013</v>
+        <v>5016</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1310,22 +1683,22 @@
         <v>43912</v>
       </c>
       <c r="B22">
-        <v>3852</v>
+        <v>3809</v>
       </c>
       <c r="C22">
-        <v>3781</v>
+        <v>3745</v>
       </c>
       <c r="D22">
-        <v>3924</v>
+        <v>3877</v>
       </c>
       <c r="E22">
-        <v>4582</v>
+        <v>4573</v>
       </c>
       <c r="F22">
-        <v>4520</v>
+        <v>4508</v>
       </c>
       <c r="G22">
-        <v>4649</v>
+        <v>4638</v>
       </c>
       <c r="H22">
         <v>0.86</v>
@@ -1337,7 +1710,7 @@
         <v>0.87</v>
       </c>
       <c r="K22">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L22">
         <v>0.97</v>
@@ -1351,22 +1724,22 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5163</v>
+        <v>5148</v>
       </c>
       <c r="C23">
-        <v>5100</v>
+        <v>5088</v>
       </c>
       <c r="D23">
-        <v>5236</v>
+        <v>5202</v>
       </c>
       <c r="E23">
-        <v>4691</v>
+        <v>4675</v>
       </c>
       <c r="F23">
-        <v>4627</v>
+        <v>4609</v>
       </c>
       <c r="G23">
-        <v>4761</v>
+        <v>4737</v>
       </c>
       <c r="H23">
         <v>0.88</v>
@@ -1375,13 +1748,13 @@
         <v>0.87</v>
       </c>
       <c r="J23">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K23">
         <v>0.92</v>
       </c>
       <c r="L23">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M23">
         <v>0.92</v>
@@ -1392,22 +1765,22 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4139</v>
+        <v>4093</v>
       </c>
       <c r="C24">
-        <v>4071</v>
+        <v>4038</v>
       </c>
       <c r="D24">
-        <v>4206</v>
+        <v>4151</v>
       </c>
       <c r="E24">
-        <v>4399</v>
+        <v>4371</v>
       </c>
       <c r="F24">
-        <v>4334</v>
+        <v>4308</v>
       </c>
       <c r="G24">
-        <v>4468</v>
+        <v>4428</v>
       </c>
       <c r="H24">
         <v>0.85</v>
@@ -1419,7 +1792,7 @@
         <v>0.86</v>
       </c>
       <c r="K24">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L24">
         <v>0.89</v>
@@ -1433,34 +1806,34 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4414</v>
+        <v>4399</v>
       </c>
       <c r="C25">
-        <v>4357</v>
+        <v>4333</v>
       </c>
       <c r="D25">
-        <v>4483</v>
+        <v>4463</v>
       </c>
       <c r="E25">
-        <v>4392</v>
+        <v>4362</v>
       </c>
       <c r="F25">
-        <v>4327</v>
+        <v>4301</v>
       </c>
       <c r="G25">
-        <v>4462</v>
+        <v>4423</v>
       </c>
       <c r="H25">
+        <v>0.88</v>
+      </c>
+      <c r="I25">
+        <v>0.87</v>
+      </c>
+      <c r="J25">
         <v>0.89</v>
       </c>
-      <c r="I25">
-        <v>0.88</v>
-      </c>
-      <c r="J25">
-        <v>0.9</v>
-      </c>
       <c r="K25">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L25">
         <v>0.89</v>
@@ -1474,31 +1847,31 @@
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>4014</v>
+        <v>4011</v>
       </c>
       <c r="C26">
-        <v>3949</v>
+        <v>3960</v>
       </c>
       <c r="D26">
-        <v>4083</v>
+        <v>4067</v>
       </c>
       <c r="E26">
-        <v>4433</v>
+        <v>4413</v>
       </c>
       <c r="F26">
-        <v>4369</v>
+        <v>4355</v>
       </c>
       <c r="G26">
-        <v>4502</v>
+        <v>4471</v>
       </c>
       <c r="H26">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I26">
         <v>0.96</v>
       </c>
       <c r="J26">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K26">
         <v>0.88</v>
@@ -1515,22 +1888,22 @@
         <v>43917</v>
       </c>
       <c r="B27">
-        <v>4122</v>
+        <v>4129</v>
       </c>
       <c r="C27">
-        <v>4055</v>
+        <v>4068</v>
       </c>
       <c r="D27">
-        <v>4189</v>
+        <v>4192</v>
       </c>
       <c r="E27">
-        <v>4172</v>
+        <v>4158</v>
       </c>
       <c r="F27">
-        <v>4108</v>
+        <v>4100</v>
       </c>
       <c r="G27">
-        <v>4240</v>
+        <v>4218</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1556,28 +1929,28 @@
         <v>43918</v>
       </c>
       <c r="B28">
-        <v>3908</v>
+        <v>3884</v>
       </c>
       <c r="C28">
-        <v>3843</v>
+        <v>3828</v>
       </c>
       <c r="D28">
-        <v>3977</v>
+        <v>3944</v>
       </c>
       <c r="E28">
-        <v>4115</v>
+        <v>4106</v>
       </c>
       <c r="F28">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="G28">
-        <v>4183</v>
+        <v>4166</v>
       </c>
       <c r="H28">
         <v>0.94</v>
       </c>
       <c r="I28">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J28">
         <v>0.95</v>
@@ -1597,31 +1970,31 @@
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3320</v>
+        <v>3283</v>
       </c>
       <c r="C29">
-        <v>3250</v>
+        <v>3233</v>
       </c>
       <c r="D29">
-        <v>3386</v>
+        <v>3349</v>
       </c>
       <c r="E29">
-        <v>3841</v>
+        <v>3827</v>
       </c>
       <c r="F29">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="G29">
-        <v>3909</v>
+        <v>3888</v>
       </c>
       <c r="H29">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I29">
         <v>0.87</v>
       </c>
       <c r="J29">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K29">
         <v>0.9</v>
@@ -1638,22 +2011,22 @@
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4383</v>
+        <v>4398</v>
       </c>
       <c r="C30">
-        <v>4326</v>
+        <v>4339</v>
       </c>
       <c r="D30">
-        <v>4438</v>
+        <v>4470</v>
       </c>
       <c r="E30">
-        <v>3933</v>
+        <v>3924</v>
       </c>
       <c r="F30">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="G30">
-        <v>3998</v>
+        <v>3989</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1668,7 +2041,7 @@
         <v>0.92</v>
       </c>
       <c r="L30">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M30">
         <v>0.93</v>
@@ -1679,22 +2052,22 @@
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="C31">
-        <v>3526</v>
+        <v>3531</v>
       </c>
       <c r="D31">
-        <v>3659</v>
+        <v>3654</v>
       </c>
       <c r="E31">
-        <v>3801</v>
+        <v>3789</v>
       </c>
       <c r="F31">
-        <v>3736</v>
+        <v>3732</v>
       </c>
       <c r="G31">
-        <v>3865</v>
+        <v>3854</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1706,7 +2079,7 @@
         <v>0.92</v>
       </c>
       <c r="K31">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L31">
         <v>0.92</v>
@@ -1720,22 +2093,22 @@
         <v>43922</v>
       </c>
       <c r="B32">
-        <v>4026</v>
+        <v>4036</v>
       </c>
       <c r="C32">
-        <v>3962</v>
+        <v>3973</v>
       </c>
       <c r="D32">
-        <v>4086</v>
+        <v>4104</v>
       </c>
       <c r="E32">
-        <v>3830</v>
+        <v>3827</v>
       </c>
       <c r="F32">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="G32">
-        <v>3892</v>
+        <v>3894</v>
       </c>
       <c r="H32">
         <v>0.93</v>
@@ -1761,28 +2134,28 @@
         <v>43923</v>
       </c>
       <c r="B33">
-        <v>3761</v>
+        <v>3737</v>
       </c>
       <c r="C33">
-        <v>3697</v>
+        <v>3677</v>
       </c>
       <c r="D33">
-        <v>3830</v>
+        <v>3803</v>
       </c>
       <c r="E33">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="F33">
-        <v>3878</v>
+        <v>3880</v>
       </c>
       <c r="G33">
-        <v>4003</v>
+        <v>4008</v>
       </c>
       <c r="H33">
         <v>1.03</v>
       </c>
       <c r="I33">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J33">
         <v>1.04</v>
@@ -1802,22 +2175,22 @@
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3762</v>
+        <v>3734</v>
       </c>
       <c r="C34">
-        <v>3703</v>
+        <v>3671</v>
       </c>
       <c r="D34">
-        <v>3833</v>
+        <v>3787</v>
       </c>
       <c r="E34">
-        <v>3785</v>
+        <v>3775</v>
       </c>
       <c r="F34">
-        <v>3722</v>
+        <v>3713</v>
       </c>
       <c r="G34">
-        <v>3852</v>
+        <v>3837</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1826,7 +2199,7 @@
         <v>0.95</v>
       </c>
       <c r="J34">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K34">
         <v>0.93</v>
@@ -1843,22 +2216,22 @@
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3064</v>
+        <v>3020</v>
       </c>
       <c r="C35">
-        <v>2995</v>
+        <v>2966</v>
       </c>
       <c r="D35">
-        <v>3122</v>
+        <v>3082</v>
       </c>
       <c r="E35">
-        <v>3653</v>
+        <v>3632</v>
       </c>
       <c r="F35">
-        <v>3589</v>
+        <v>3572</v>
       </c>
       <c r="G35">
-        <v>3718</v>
+        <v>3694</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1870,7 +2243,7 @@
         <v>0.97</v>
       </c>
       <c r="K35">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L35">
         <v>0.92</v>
@@ -1884,34 +2257,34 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2730</v>
+        <v>2717</v>
       </c>
       <c r="C36">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D36">
-        <v>2799</v>
+        <v>2779</v>
       </c>
       <c r="E36">
-        <v>3329</v>
+        <v>3302</v>
       </c>
       <c r="F36">
-        <v>3267</v>
+        <v>3247</v>
       </c>
       <c r="G36">
-        <v>3396</v>
+        <v>3362</v>
       </c>
       <c r="H36">
+        <v>0.86</v>
+      </c>
+      <c r="I36">
+        <v>0.85</v>
+      </c>
+      <c r="J36">
         <v>0.87</v>
       </c>
-      <c r="I36">
-        <v>0.86</v>
-      </c>
-      <c r="J36">
-        <v>0.88</v>
-      </c>
       <c r="K36">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L36">
         <v>0.89</v>
@@ -1925,31 +2298,31 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3352</v>
+        <v>3344</v>
       </c>
       <c r="C37">
-        <v>3295</v>
+        <v>3287</v>
       </c>
       <c r="D37">
-        <v>3411</v>
+        <v>3399</v>
       </c>
       <c r="E37">
-        <v>3227</v>
+        <v>3204</v>
       </c>
       <c r="F37">
-        <v>3167</v>
+        <v>3149</v>
       </c>
       <c r="G37">
-        <v>3291</v>
+        <v>3261</v>
       </c>
       <c r="H37">
+        <v>0.81</v>
+      </c>
+      <c r="I37">
+        <v>0.8</v>
+      </c>
+      <c r="J37">
         <v>0.82</v>
-      </c>
-      <c r="I37">
-        <v>0.81</v>
-      </c>
-      <c r="J37">
-        <v>0.83</v>
       </c>
       <c r="K37">
         <v>0.89</v>
@@ -1966,31 +2339,31 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3096</v>
+        <v>3075</v>
       </c>
       <c r="C38">
-        <v>3040</v>
+        <v>3025</v>
       </c>
       <c r="D38">
-        <v>3162</v>
+        <v>3131</v>
       </c>
       <c r="E38">
-        <v>3060</v>
+        <v>3039</v>
       </c>
       <c r="F38">
-        <v>3001</v>
+        <v>2987</v>
       </c>
       <c r="G38">
-        <v>3123</v>
+        <v>3097</v>
       </c>
       <c r="H38">
         <v>0.81</v>
       </c>
       <c r="I38">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J38">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="K38">
         <v>0.87</v>
@@ -2007,28 +2380,28 @@
         <v>43929</v>
       </c>
       <c r="B39">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="C39">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="D39">
-        <v>2963</v>
+        <v>2948</v>
       </c>
       <c r="E39">
-        <v>3019</v>
+        <v>3007</v>
       </c>
       <c r="F39">
-        <v>2960</v>
+        <v>2955</v>
       </c>
       <c r="G39">
-        <v>3084</v>
+        <v>3064</v>
       </c>
       <c r="H39">
         <v>0.83</v>
       </c>
       <c r="I39">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J39">
         <v>0.84</v>
@@ -2048,28 +2421,28 @@
         <v>43930</v>
       </c>
       <c r="B40">
-        <v>2716</v>
+        <v>2694</v>
       </c>
       <c r="C40">
-        <v>2664</v>
+        <v>2643</v>
       </c>
       <c r="D40">
-        <v>2766</v>
+        <v>2739</v>
       </c>
       <c r="E40">
-        <v>3015</v>
+        <v>3001</v>
       </c>
       <c r="F40">
-        <v>2958</v>
+        <v>2947</v>
       </c>
       <c r="G40">
-        <v>3075</v>
+        <v>3054</v>
       </c>
       <c r="H40">
         <v>0.91</v>
       </c>
       <c r="I40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J40">
         <v>0.92</v>
@@ -2078,7 +2451,7 @@
         <v>0.83</v>
       </c>
       <c r="L40">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="M40">
         <v>0.84</v>
@@ -2089,34 +2462,34 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2333</v>
+        <v>2326</v>
       </c>
       <c r="C41">
-        <v>2279</v>
+        <v>2271</v>
       </c>
       <c r="D41">
-        <v>2394</v>
+        <v>2375</v>
       </c>
       <c r="E41">
-        <v>2761</v>
+        <v>2747</v>
       </c>
       <c r="F41">
-        <v>2704</v>
+        <v>2693</v>
       </c>
       <c r="G41">
-        <v>2821</v>
+        <v>2798</v>
       </c>
       <c r="H41">
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J41">
         <v>0.87</v>
       </c>
       <c r="K41">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L41">
         <v>0.8</v>
@@ -2130,25 +2503,25 @@
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C42">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="D42">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="E42">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="F42">
-        <v>2437</v>
+        <v>2428</v>
       </c>
       <c r="G42">
-        <v>2546</v>
+        <v>2533</v>
       </c>
       <c r="H42">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="I42">
         <v>0.8</v>
@@ -2171,22 +2544,22 @@
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1993</v>
+        <v>1966</v>
       </c>
       <c r="C43">
-        <v>1939</v>
+        <v>1911</v>
       </c>
       <c r="D43">
-        <v>2045</v>
+        <v>2016</v>
       </c>
       <c r="E43">
-        <v>2265</v>
+        <v>2250</v>
       </c>
       <c r="F43">
-        <v>2213</v>
+        <v>2197</v>
       </c>
       <c r="G43">
-        <v>2317</v>
+        <v>2300</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2212,28 +2585,28 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="C44">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="D44">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="E44">
-        <v>2066</v>
+        <v>2053</v>
       </c>
       <c r="F44">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="G44">
-        <v>2118</v>
+        <v>2103</v>
       </c>
       <c r="H44">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="I44">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="J44">
         <v>0.7</v>
@@ -2253,28 +2626,28 @@
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1987</v>
+        <v>1964</v>
       </c>
       <c r="C45">
-        <v>1936</v>
+        <v>1918</v>
       </c>
       <c r="D45">
-        <v>2042</v>
+        <v>2009</v>
       </c>
       <c r="E45">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="F45">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="G45">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="H45">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="I45">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="J45">
         <v>0.73</v>
@@ -2286,7 +2659,7 @@
         <v>0.77</v>
       </c>
       <c r="M45">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2294,31 +2667,31 @@
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1943</v>
+        <v>1930</v>
       </c>
       <c r="C46">
+        <v>1886</v>
+      </c>
+      <c r="D46">
+        <v>1975</v>
+      </c>
+      <c r="E46">
+        <v>1941</v>
+      </c>
+      <c r="F46">
         <v>1893</v>
       </c>
-      <c r="D46">
-        <v>1989</v>
-      </c>
-      <c r="E46">
-        <v>1961</v>
-      </c>
-      <c r="F46">
-        <v>1908</v>
-      </c>
       <c r="G46">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="H46">
+        <v>0.78</v>
+      </c>
+      <c r="I46">
+        <v>0.77</v>
+      </c>
+      <c r="J46">
         <v>0.79</v>
-      </c>
-      <c r="I46">
-        <v>0.78</v>
-      </c>
-      <c r="J46">
-        <v>0.8</v>
       </c>
       <c r="K46">
         <v>0.76</v>
@@ -2327,7 +2700,7 @@
         <v>0.75</v>
       </c>
       <c r="M46">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2335,22 +2708,22 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1782</v>
+        <v>1768</v>
       </c>
       <c r="C47">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D47">
-        <v>1839</v>
+        <v>1813</v>
       </c>
       <c r="E47">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="F47">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="G47">
-        <v>1960</v>
+        <v>1937</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2362,7 +2735,7 @@
         <v>0.86</v>
       </c>
       <c r="K47">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L47">
         <v>0.78</v>
@@ -2376,31 +2749,31 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1684</v>
+        <v>1665</v>
       </c>
       <c r="C48">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="D48">
-        <v>1735</v>
+        <v>1707</v>
       </c>
       <c r="E48">
-        <v>1849</v>
+        <v>1832</v>
       </c>
       <c r="F48">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="G48">
-        <v>1901</v>
+        <v>1876</v>
       </c>
       <c r="H48">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I48">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J48">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K48">
         <v>0.8</v>
@@ -2417,22 +2790,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="C49">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D49">
-        <v>1514</v>
+        <v>1487</v>
       </c>
       <c r="E49">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="F49">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="G49">
-        <v>1769</v>
+        <v>1745</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2441,7 +2814,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2458,22 +2831,22 @@
         <v>43940</v>
       </c>
       <c r="B50">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="C50">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="D50">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="E50">
-        <v>1563</v>
+        <v>1545</v>
       </c>
       <c r="F50">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="G50">
-        <v>1615</v>
+        <v>1589</v>
       </c>
       <c r="H50">
         <v>0.8</v>
@@ -2482,7 +2855,7 @@
         <v>0.78</v>
       </c>
       <c r="J50">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="K50">
         <v>0.84</v>
@@ -2499,40 +2872,40 @@
         <v>43941</v>
       </c>
       <c r="B51">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="C51">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="D51">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="E51">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="F51">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="G51">
-        <v>1558</v>
+        <v>1541</v>
       </c>
       <c r="H51">
         <v>0.79</v>
       </c>
       <c r="I51">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J51">
         <v>0.81</v>
       </c>
       <c r="K51">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L51">
         <v>0.83</v>
       </c>
       <c r="M51">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2540,22 +2913,22 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="C52">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="D52">
-        <v>1429</v>
+        <v>1395</v>
       </c>
       <c r="E52">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="F52">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="G52">
-        <v>1482</v>
+        <v>1463</v>
       </c>
       <c r="H52">
         <v>0.77</v>
@@ -2570,7 +2943,7 @@
         <v>0.82</v>
       </c>
       <c r="L52">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M52">
         <v>0.83</v>
@@ -2581,28 +2954,28 @@
         <v>43943</v>
       </c>
       <c r="B53">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="C53">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="D53">
-        <v>1363</v>
+        <v>1345</v>
       </c>
       <c r="E53">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="F53">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="G53">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="H53">
         <v>0.81</v>
       </c>
       <c r="I53">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J53">
         <v>0.83</v>
@@ -2622,22 +2995,22 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1307</v>
+        <v>1287</v>
       </c>
       <c r="C54">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="D54">
-        <v>1355</v>
+        <v>1332</v>
       </c>
       <c r="E54">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="F54">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="G54">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="H54">
         <v>0.89</v>
@@ -2663,22 +3036,22 @@
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="C55">
         <v>1120</v>
       </c>
       <c r="D55">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="E55">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="F55">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="G55">
-        <v>1341</v>
+        <v>1318</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2687,13 +3060,13 @@
         <v>0.83</v>
       </c>
       <c r="J55">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K55">
         <v>0.82</v>
       </c>
       <c r="L55">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="M55">
         <v>0.83</v>
@@ -2704,22 +3077,22 @@
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C56">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="D56">
-        <v>1096</v>
+        <v>1061</v>
       </c>
       <c r="E56">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="F56">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G56">
-        <v>1257</v>
+        <v>1234</v>
       </c>
       <c r="H56">
         <v>0.84</v>
@@ -2734,7 +3107,7 @@
         <v>0.83</v>
       </c>
       <c r="L56">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M56">
         <v>0.84</v>
@@ -2745,31 +3118,31 @@
         <v>43947</v>
       </c>
       <c r="B57">
-        <v>942</v>
+        <v>910</v>
       </c>
       <c r="C57">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="D57">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="E57">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="F57">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="G57">
-        <v>1164</v>
+        <v>1135</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I57">
         <v>0.77</v>
       </c>
       <c r="J57">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="K57">
         <v>0.82</v>
@@ -2778,7 +3151,7 @@
         <v>0.81</v>
       </c>
       <c r="M57">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2786,31 +3159,31 @@
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="C58">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="D58">
-        <v>1186</v>
+        <v>1156</v>
       </c>
       <c r="E58">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="F58">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G58">
-        <v>1122</v>
+        <v>1091</v>
       </c>
       <c r="H58">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I58">
         <v>0.74</v>
       </c>
       <c r="J58">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="K58">
         <v>0.82</v>
@@ -2827,22 +3200,22 @@
         <v>43949</v>
       </c>
       <c r="B59">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="C59">
-        <v>881</v>
+        <v>908</v>
       </c>
       <c r="D59">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="E59">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="F59">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="G59">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="H59">
         <v>0.78</v>
@@ -2860,7 +3233,7 @@
         <v>0.8</v>
       </c>
       <c r="M59">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2868,25 +3241,25 @@
         <v>43950</v>
       </c>
       <c r="B60">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="C60">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D60">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="E60">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F60">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G60">
-        <v>1024</v>
+        <v>996</v>
       </c>
       <c r="H60">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="I60">
         <v>0.78</v>
@@ -2898,7 +3271,7 @@
         <v>0.81</v>
       </c>
       <c r="L60">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="M60">
         <v>0.82</v>
@@ -2909,28 +3282,28 @@
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C61">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="D61">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E61">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F61">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="G61">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="H61">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I61">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="J61">
         <v>0.91</v>
@@ -2939,7 +3312,7 @@
         <v>0.81</v>
       </c>
       <c r="L61">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="M61">
         <v>0.82</v>
@@ -2950,28 +3323,28 @@
         <v>43952</v>
       </c>
       <c r="B62">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C62">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="D62">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="E62">
         <v>888</v>
       </c>
       <c r="F62">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="G62">
-        <v>943</v>
+        <v>923</v>
       </c>
       <c r="H62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I62">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="J62">
         <v>0.87</v>
@@ -2991,37 +3364,37 @@
         <v>43953</v>
       </c>
       <c r="B63">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="C63">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D63">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="E63">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F63">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="G63">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="H63">
         <v>0.84</v>
       </c>
       <c r="I63">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J63">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K63">
         <v>0.84</v>
       </c>
       <c r="L63">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="M63">
         <v>0.86</v>
@@ -3032,31 +3405,31 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="C64">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D64">
-        <v>848</v>
+        <v>804</v>
       </c>
       <c r="E64">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F64">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G64">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="H64">
         <v>0.84</v>
       </c>
       <c r="I64">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J64">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="K64">
         <v>0.86</v>
@@ -3065,7 +3438,7 @@
         <v>0.84</v>
       </c>
       <c r="M64">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3073,40 +3446,40 @@
         <v>43955</v>
       </c>
       <c r="B65">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="C65">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="D65">
-        <v>995</v>
+        <v>940</v>
       </c>
       <c r="E65">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F65">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="G65">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="H65">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I65">
         <v>0.8</v>
       </c>
       <c r="J65">
+        <v>0.85</v>
+      </c>
+      <c r="K65">
         <v>0.88</v>
       </c>
-      <c r="K65">
-        <v>0.89</v>
-      </c>
       <c r="L65">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M65">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3114,40 +3487,40 @@
         <v>43956</v>
       </c>
       <c r="B66">
+        <v>824</v>
+      </c>
+      <c r="C66">
+        <v>790</v>
+      </c>
+      <c r="D66">
+        <v>859</v>
+      </c>
+      <c r="E66">
+        <v>805</v>
+      </c>
+      <c r="F66">
+        <v>769</v>
+      </c>
+      <c r="G66">
         <v>841</v>
       </c>
-      <c r="C66">
-        <v>755</v>
-      </c>
-      <c r="D66">
-        <v>933</v>
-      </c>
-      <c r="E66">
-        <v>823</v>
-      </c>
-      <c r="F66">
-        <v>750</v>
-      </c>
-      <c r="G66">
-        <v>893</v>
-      </c>
       <c r="H66">
+        <v>0.91</v>
+      </c>
+      <c r="I66">
+        <v>0.88</v>
+      </c>
+      <c r="J66">
         <v>0.93</v>
       </c>
-      <c r="I66">
-        <v>0.87</v>
-      </c>
-      <c r="J66">
-        <v>0.97</v>
-      </c>
       <c r="K66">
+        <v>0.91</v>
+      </c>
+      <c r="L66">
+        <v>0.89</v>
+      </c>
+      <c r="M66">
         <v>0.92</v>
-      </c>
-      <c r="L66">
-        <v>0.88</v>
-      </c>
-      <c r="M66">
-        <v>0.95</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3155,40 +3528,40 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="C67">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="D67">
-        <v>914</v>
+        <v>797</v>
       </c>
       <c r="E67">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="F67">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="G67">
-        <v>923</v>
+        <v>850</v>
       </c>
       <c r="H67">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="I67">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J67">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="K67">
+        <v>0.89</v>
+      </c>
+      <c r="L67">
+        <v>0.88</v>
+      </c>
+      <c r="M67">
         <v>0.91</v>
-      </c>
-      <c r="L67">
-        <v>0.87</v>
-      </c>
-      <c r="M67">
-        <v>0.94</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3196,40 +3569,40 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="C68">
-        <v>633</v>
+        <v>682</v>
       </c>
       <c r="D68">
-        <v>855</v>
+        <v>743</v>
       </c>
       <c r="E68">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="F68">
-        <v>727</v>
+        <v>766</v>
       </c>
       <c r="G68">
-        <v>924</v>
+        <v>834</v>
       </c>
       <c r="H68">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="I68">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="J68">
-        <v>1.0900000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="K68">
+        <v>0.9</v>
+      </c>
+      <c r="L68">
+        <v>0.89</v>
+      </c>
+      <c r="M68">
         <v>0.92</v>
-      </c>
-      <c r="L68">
-        <v>0.88</v>
-      </c>
-      <c r="M68">
-        <v>0.97</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3237,40 +3610,40 @@
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C69">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>719</v>
       </c>
       <c r="E69">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="F69">
-        <v>653</v>
+        <v>712</v>
       </c>
       <c r="G69">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="H69">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="I69">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="J69">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="K69">
+        <v>0.9</v>
+      </c>
+      <c r="L69">
+        <v>0.88</v>
+      </c>
+      <c r="M69">
         <v>0.91</v>
-      </c>
-      <c r="L69">
-        <v>0.87</v>
-      </c>
-      <c r="M69">
-        <v>0.96</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3278,40 +3651,40 @@
         <v>43960</v>
       </c>
       <c r="B70">
+        <v>590</v>
+      </c>
+      <c r="C70">
+        <v>556</v>
+      </c>
+      <c r="D70">
         <v>625</v>
       </c>
-      <c r="C70">
-        <v>514</v>
-      </c>
-      <c r="D70">
-        <v>793</v>
-      </c>
       <c r="E70">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="F70">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="G70">
-        <v>841</v>
+        <v>721</v>
       </c>
       <c r="H70">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I70">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="J70">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="K70">
+        <v>0.88</v>
+      </c>
+      <c r="L70">
+        <v>0.87</v>
+      </c>
+      <c r="M70">
         <v>0.89</v>
-      </c>
-      <c r="L70">
-        <v>0.84</v>
-      </c>
-      <c r="M70">
-        <v>0.94</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3319,40 +3692,40 @@
         <v>43961</v>
       </c>
       <c r="B71">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C71">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="D71">
-        <v>702</v>
+        <v>599</v>
       </c>
       <c r="E71">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="F71">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="G71">
-        <v>788</v>
+        <v>671</v>
       </c>
       <c r="H71">
         <v>0.78</v>
       </c>
       <c r="I71">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="J71">
+        <v>0.81</v>
+      </c>
+      <c r="K71">
         <v>0.87</v>
       </c>
-      <c r="K71">
-        <v>0.88</v>
-      </c>
       <c r="L71">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="M71">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3360,40 +3733,40 @@
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>729</v>
+        <v>669</v>
       </c>
       <c r="C72">
-        <v>466</v>
+        <v>635</v>
       </c>
       <c r="D72">
-        <v>987</v>
+        <v>707</v>
       </c>
       <c r="E72">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="F72">
-        <v>484</v>
+        <v>593</v>
       </c>
       <c r="G72">
-        <v>821</v>
+        <v>662</v>
       </c>
       <c r="H72">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="I72">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="J72">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
       <c r="K72">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L72">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="M72">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3401,31 +3774,1097 @@
         <v>43963</v>
       </c>
       <c r="B73">
-        <v>752</v>
+        <v>622</v>
       </c>
       <c r="C73">
+        <v>589</v>
+      </c>
+      <c r="D73">
+        <v>655</v>
+      </c>
+      <c r="E73">
+        <v>611</v>
+      </c>
+      <c r="F73">
+        <v>578</v>
+      </c>
+      <c r="G73">
+        <v>646</v>
+      </c>
+      <c r="H73">
+        <v>0.82</v>
+      </c>
+      <c r="I73">
+        <v>0.79</v>
+      </c>
+      <c r="J73">
+        <v>0.85</v>
+      </c>
+      <c r="K73">
+        <v>0.85</v>
+      </c>
+      <c r="L73">
+        <v>0.83</v>
+      </c>
+      <c r="M73">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B74">
+        <v>593</v>
+      </c>
+      <c r="C74">
+        <v>566</v>
+      </c>
+      <c r="D74">
+        <v>633</v>
+      </c>
+      <c r="E74">
+        <v>612</v>
+      </c>
+      <c r="F74">
+        <v>580</v>
+      </c>
+      <c r="G74">
+        <v>648</v>
+      </c>
+      <c r="H74">
+        <v>0.89</v>
+      </c>
+      <c r="I74">
+        <v>0.86</v>
+      </c>
+      <c r="J74">
+        <v>0.92</v>
+      </c>
+      <c r="K74">
+        <v>0.85</v>
+      </c>
+      <c r="L74">
+        <v>0.83</v>
+      </c>
+      <c r="M74">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B75">
+        <v>536</v>
+      </c>
+      <c r="C75">
+        <v>509</v>
+      </c>
+      <c r="D75">
+        <v>570</v>
+      </c>
+      <c r="E75">
+        <v>605</v>
+      </c>
+      <c r="F75">
+        <v>574</v>
+      </c>
+      <c r="G75">
+        <v>641</v>
+      </c>
+      <c r="H75">
+        <v>0.95</v>
+      </c>
+      <c r="I75">
+        <v>0.91</v>
+      </c>
+      <c r="J75">
+        <v>0.99</v>
+      </c>
+      <c r="K75">
+        <v>0.88</v>
+      </c>
+      <c r="L75">
+        <v>0.87</v>
+      </c>
+      <c r="M75">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B76">
+        <v>672</v>
+      </c>
+      <c r="C76">
+        <v>635</v>
+      </c>
+      <c r="D76">
+        <v>706</v>
+      </c>
+      <c r="E76">
+        <v>606</v>
+      </c>
+      <c r="F76">
+        <v>575</v>
+      </c>
+      <c r="G76">
+        <v>641</v>
+      </c>
+      <c r="H76">
+        <v>0.97</v>
+      </c>
+      <c r="I76">
+        <v>0.93</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0.92</v>
+      </c>
+      <c r="L76">
+        <v>0.9</v>
+      </c>
+      <c r="M76">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B77">
+        <v>551</v>
+      </c>
+      <c r="C77">
+        <v>520</v>
+      </c>
+      <c r="D77">
+        <v>581</v>
+      </c>
+      <c r="E77">
+        <v>588</v>
+      </c>
+      <c r="F77">
+        <v>557</v>
+      </c>
+      <c r="G77">
+        <v>622</v>
+      </c>
+      <c r="H77">
+        <v>0.96</v>
+      </c>
+      <c r="I77">
+        <v>0.93</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0.93</v>
+      </c>
+      <c r="L77">
+        <v>0.91</v>
+      </c>
+      <c r="M77">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B78">
+        <v>457</v>
+      </c>
+      <c r="C78">
+        <v>428</v>
+      </c>
+      <c r="D78">
+        <v>486</v>
+      </c>
+      <c r="E78">
+        <v>554</v>
+      </c>
+      <c r="F78">
+        <v>523</v>
+      </c>
+      <c r="G78">
+        <v>586</v>
+      </c>
+      <c r="H78">
+        <v>0.91</v>
+      </c>
+      <c r="I78">
+        <v>0.88</v>
+      </c>
+      <c r="J78">
+        <v>0.94</v>
+      </c>
+      <c r="K78">
+        <v>0.95</v>
+      </c>
+      <c r="L78">
+        <v>0.93</v>
+      </c>
+      <c r="M78">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B79">
+        <v>619</v>
+      </c>
+      <c r="C79">
+        <v>588</v>
+      </c>
+      <c r="D79">
+        <v>654</v>
+      </c>
+      <c r="E79">
+        <v>575</v>
+      </c>
+      <c r="F79">
+        <v>543</v>
+      </c>
+      <c r="G79">
+        <v>607</v>
+      </c>
+      <c r="H79">
+        <v>0.95</v>
+      </c>
+      <c r="I79">
+        <v>0.91</v>
+      </c>
+      <c r="J79">
+        <v>0.99</v>
+      </c>
+      <c r="K79">
+        <v>0.92</v>
+      </c>
+      <c r="L79">
+        <v>0.9</v>
+      </c>
+      <c r="M79">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B80">
+        <v>492</v>
+      </c>
+      <c r="C80">
+        <v>461</v>
+      </c>
+      <c r="D80">
+        <v>523</v>
+      </c>
+      <c r="E80">
+        <v>529</v>
+      </c>
+      <c r="F80">
         <v>499</v>
       </c>
-      <c r="D73">
-        <v>1036</v>
-      </c>
-      <c r="E73">
-        <v>667</v>
-      </c>
-      <c r="F73">
-        <v>475</v>
-      </c>
-      <c r="G73">
-        <v>880</v>
-      </c>
-      <c r="H73">
+      <c r="G80">
+        <v>561</v>
+      </c>
+      <c r="H80">
+        <v>0.87</v>
+      </c>
+      <c r="I80">
+        <v>0.84</v>
+      </c>
+      <c r="J80">
+        <v>0.91</v>
+      </c>
+      <c r="K80">
+        <v>0.92</v>
+      </c>
+      <c r="L80">
+        <v>0.91</v>
+      </c>
+      <c r="M80">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B81">
+        <v>562</v>
+      </c>
+      <c r="C81">
+        <v>530</v>
+      </c>
+      <c r="D81">
+        <v>592</v>
+      </c>
+      <c r="E81">
+        <v>532</v>
+      </c>
+      <c r="F81">
+        <v>502</v>
+      </c>
+      <c r="G81">
+        <v>564</v>
+      </c>
+      <c r="H81">
+        <v>0.91</v>
+      </c>
+      <c r="I81">
+        <v>0.87</v>
+      </c>
+      <c r="J81">
+        <v>0.94</v>
+      </c>
+      <c r="K81">
+        <v>0.91</v>
+      </c>
+      <c r="L81">
+        <v>0.89</v>
+      </c>
+      <c r="M81">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B82">
+        <v>380</v>
+      </c>
+      <c r="C82">
+        <v>355</v>
+      </c>
+      <c r="D82">
+        <v>407</v>
+      </c>
+      <c r="E82">
+        <v>513</v>
+      </c>
+      <c r="F82">
+        <v>483</v>
+      </c>
+      <c r="G82">
+        <v>544</v>
+      </c>
+      <c r="H82">
+        <v>0.93</v>
+      </c>
+      <c r="I82">
+        <v>0.89</v>
+      </c>
+      <c r="J82">
+        <v>0.97</v>
+      </c>
+      <c r="K82">
+        <v>0.85</v>
+      </c>
+      <c r="L82">
+        <v>0.83</v>
+      </c>
+      <c r="M82">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B83">
+        <v>394</v>
+      </c>
+      <c r="C83">
+        <v>366</v>
+      </c>
+      <c r="D83">
+        <v>426</v>
+      </c>
+      <c r="E83">
+        <v>457</v>
+      </c>
+      <c r="F83">
+        <v>428</v>
+      </c>
+      <c r="G83">
+        <v>487</v>
+      </c>
+      <c r="H83">
+        <v>0.8</v>
+      </c>
+      <c r="I83">
+        <v>0.76</v>
+      </c>
+      <c r="J83">
+        <v>0.83</v>
+      </c>
+      <c r="K83">
+        <v>0.84</v>
+      </c>
+      <c r="L83">
+        <v>0.82</v>
+      </c>
+      <c r="M83">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B84">
+        <v>374</v>
+      </c>
+      <c r="C84">
+        <v>346</v>
+      </c>
+      <c r="D84">
+        <v>397</v>
+      </c>
+      <c r="E84">
+        <v>428</v>
+      </c>
+      <c r="F84">
+        <v>399</v>
+      </c>
+      <c r="G84">
+        <v>456</v>
+      </c>
+      <c r="H84">
+        <v>0.81</v>
+      </c>
+      <c r="I84">
+        <v>0.77</v>
+      </c>
+      <c r="J84">
+        <v>0.85</v>
+      </c>
+      <c r="K84">
+        <v>0.83</v>
+      </c>
+      <c r="L84">
+        <v>0.81</v>
+      </c>
+      <c r="M84">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B85">
+        <v>389</v>
+      </c>
+      <c r="C85">
+        <v>352</v>
+      </c>
+      <c r="D85">
+        <v>420</v>
+      </c>
+      <c r="E85">
+        <v>384</v>
+      </c>
+      <c r="F85">
+        <v>355</v>
+      </c>
+      <c r="G85">
+        <v>413</v>
+      </c>
+      <c r="H85">
+        <v>0.72</v>
+      </c>
+      <c r="I85">
+        <v>0.69</v>
+      </c>
+      <c r="J85">
+        <v>0.76</v>
+      </c>
+      <c r="K85">
+        <v>0.82</v>
+      </c>
+      <c r="L85">
+        <v>0.8</v>
+      </c>
+      <c r="M85">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B86">
+        <v>466</v>
+      </c>
+      <c r="C86">
+        <v>431</v>
+      </c>
+      <c r="D86">
+        <v>504</v>
+      </c>
+      <c r="E86">
+        <v>406</v>
+      </c>
+      <c r="F86">
+        <v>374</v>
+      </c>
+      <c r="G86">
+        <v>437</v>
+      </c>
+      <c r="H86">
+        <v>0.79</v>
+      </c>
+      <c r="I86">
+        <v>0.76</v>
+      </c>
+      <c r="J86">
+        <v>0.83</v>
+      </c>
+      <c r="K86">
+        <v>0.87</v>
+      </c>
+      <c r="L86">
+        <v>0.84</v>
+      </c>
+      <c r="M86">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B87">
+        <v>438</v>
+      </c>
+      <c r="C87">
+        <v>410</v>
+      </c>
+      <c r="D87">
+        <v>466</v>
+      </c>
+      <c r="E87">
+        <v>417</v>
+      </c>
+      <c r="F87">
+        <v>385</v>
+      </c>
+      <c r="G87">
+        <v>447</v>
+      </c>
+      <c r="H87">
+        <v>0.91</v>
+      </c>
+      <c r="I87">
+        <v>0.86</v>
+      </c>
+      <c r="J87">
+        <v>0.96</v>
+      </c>
+      <c r="K87">
+        <v>0.89</v>
+      </c>
+      <c r="L87">
+        <v>0.86</v>
+      </c>
+      <c r="M87">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B88">
+        <v>468</v>
+      </c>
+      <c r="C88">
+        <v>427</v>
+      </c>
+      <c r="D88">
+        <v>506</v>
+      </c>
+      <c r="E88">
+        <v>440</v>
+      </c>
+      <c r="F88">
+        <v>405</v>
+      </c>
+      <c r="G88">
+        <v>474</v>
+      </c>
+      <c r="H88">
+        <v>1.03</v>
+      </c>
+      <c r="I88">
+        <v>0.97</v>
+      </c>
+      <c r="J88">
+        <v>1.08</v>
+      </c>
+      <c r="K88">
+        <v>0.91</v>
+      </c>
+      <c r="L88">
+        <v>0.89</v>
+      </c>
+      <c r="M88">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B89">
+        <v>392</v>
+      </c>
+      <c r="C89">
+        <v>359</v>
+      </c>
+      <c r="D89">
+        <v>433</v>
+      </c>
+      <c r="E89">
+        <v>441</v>
+      </c>
+      <c r="F89">
+        <v>407</v>
+      </c>
+      <c r="G89">
+        <v>477</v>
+      </c>
+      <c r="H89">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I89">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J89">
+        <v>1.21</v>
+      </c>
+      <c r="K89">
+        <v>0.94</v>
+      </c>
+      <c r="L89">
+        <v>0.92</v>
+      </c>
+      <c r="M89">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B90">
+        <v>358</v>
+      </c>
+      <c r="C90">
+        <v>323</v>
+      </c>
+      <c r="D90">
+        <v>389</v>
+      </c>
+      <c r="E90">
+        <v>414</v>
+      </c>
+      <c r="F90">
+        <v>380</v>
+      </c>
+      <c r="G90">
+        <v>448</v>
+      </c>
+      <c r="H90">
+        <v>1.02</v>
+      </c>
+      <c r="I90">
+        <v>0.96</v>
+      </c>
+      <c r="J90">
+        <v>1.08</v>
+      </c>
+      <c r="K90">
+        <v>0.94</v>
+      </c>
+      <c r="L90">
+        <v>0.91</v>
+      </c>
+      <c r="M90">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B91">
+        <v>316</v>
+      </c>
+      <c r="C91">
+        <v>273</v>
+      </c>
+      <c r="D91">
+        <v>366</v>
+      </c>
+      <c r="E91">
+        <v>383</v>
+      </c>
+      <c r="F91">
+        <v>346</v>
+      </c>
+      <c r="G91">
+        <v>423</v>
+      </c>
+      <c r="H91">
+        <v>0.92</v>
+      </c>
+      <c r="I91">
+        <v>0.87</v>
+      </c>
+      <c r="J91">
+        <v>0.98</v>
+      </c>
+      <c r="K91">
+        <v>0.93</v>
+      </c>
+      <c r="L91">
+        <v>0.9</v>
+      </c>
+      <c r="M91">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B92">
+        <v>268</v>
+      </c>
+      <c r="C92">
+        <v>229</v>
+      </c>
+      <c r="D92">
+        <v>313</v>
+      </c>
+      <c r="E92">
+        <v>333</v>
+      </c>
+      <c r="F92">
+        <v>296</v>
+      </c>
+      <c r="G92">
+        <v>375</v>
+      </c>
+      <c r="H92">
+        <v>0.76</v>
+      </c>
+      <c r="I92">
+        <v>0.71</v>
+      </c>
+      <c r="J92">
+        <v>0.81</v>
+      </c>
+      <c r="K92">
         <v>0.88</v>
       </c>
-      <c r="I73">
-        <v>0.72</v>
-      </c>
-      <c r="J73">
-        <v>1.05</v>
+      <c r="L92">
+        <v>0.84</v>
+      </c>
+      <c r="M92">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B93">
+        <v>317</v>
+      </c>
+      <c r="C93">
+        <v>272</v>
+      </c>
+      <c r="D93">
+        <v>366</v>
+      </c>
+      <c r="E93">
+        <v>315</v>
+      </c>
+      <c r="F93">
+        <v>274</v>
+      </c>
+      <c r="G93">
+        <v>358</v>
+      </c>
+      <c r="H93">
+        <v>0.71</v>
+      </c>
+      <c r="I93">
+        <v>0.65</v>
+      </c>
+      <c r="J93">
+        <v>0.77</v>
+      </c>
+      <c r="K93">
+        <v>0.9</v>
+      </c>
+      <c r="L93">
+        <v>0.86</v>
+      </c>
+      <c r="M93">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B94">
+        <v>479</v>
+      </c>
+      <c r="C94">
+        <v>410</v>
+      </c>
+      <c r="D94">
+        <v>546</v>
+      </c>
+      <c r="E94">
+        <v>345</v>
+      </c>
+      <c r="F94">
+        <v>296</v>
+      </c>
+      <c r="G94">
+        <v>398</v>
+      </c>
+      <c r="H94">
+        <v>0.83</v>
+      </c>
+      <c r="I94">
+        <v>0.76</v>
+      </c>
+      <c r="J94">
+        <v>0.92</v>
+      </c>
+      <c r="K94">
+        <v>0.9</v>
+      </c>
+      <c r="L94">
+        <v>0.85</v>
+      </c>
+      <c r="M94">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B95">
+        <v>426</v>
+      </c>
+      <c r="C95">
+        <v>330</v>
+      </c>
+      <c r="D95">
+        <v>520</v>
+      </c>
+      <c r="E95">
+        <v>373</v>
+      </c>
+      <c r="F95">
+        <v>310</v>
+      </c>
+      <c r="G95">
+        <v>436</v>
+      </c>
+      <c r="H95">
+        <v>0.97</v>
+      </c>
+      <c r="I95">
+        <v>0.86</v>
+      </c>
+      <c r="J95">
+        <v>1.08</v>
+      </c>
+      <c r="K95">
+        <v>0.93</v>
+      </c>
+      <c r="L95">
+        <v>0.86</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B96">
+        <v>350</v>
+      </c>
+      <c r="C96">
+        <v>242</v>
+      </c>
+      <c r="D96">
+        <v>448</v>
+      </c>
+      <c r="E96">
+        <v>393</v>
+      </c>
+      <c r="F96">
+        <v>314</v>
+      </c>
+      <c r="G96">
+        <v>470</v>
+      </c>
+      <c r="H96">
+        <v>1.18</v>
+      </c>
+      <c r="I96">
+        <v>1.03</v>
+      </c>
+      <c r="J96">
+        <v>1.34</v>
+      </c>
+      <c r="K96">
+        <v>0.98</v>
+      </c>
+      <c r="L96">
+        <v>0.9</v>
+      </c>
+      <c r="M96">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B97">
+        <v>356</v>
+      </c>
+      <c r="C97">
+        <v>228</v>
+      </c>
+      <c r="D97">
+        <v>480</v>
+      </c>
+      <c r="E97">
+        <v>403</v>
+      </c>
+      <c r="F97">
+        <v>303</v>
+      </c>
+      <c r="G97">
+        <v>498</v>
+      </c>
+      <c r="H97">
+        <v>1.28</v>
+      </c>
+      <c r="I97">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J97">
+        <v>1.48</v>
+      </c>
+      <c r="K97">
+        <v>0.98</v>
+      </c>
+      <c r="L97">
+        <v>0.89</v>
+      </c>
+      <c r="M97">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B98">
+        <v>341</v>
+      </c>
+      <c r="C98">
+        <v>180</v>
+      </c>
+      <c r="D98">
+        <v>484</v>
+      </c>
+      <c r="E98">
+        <v>368</v>
+      </c>
+      <c r="F98">
+        <v>245</v>
+      </c>
+      <c r="G98">
+        <v>483</v>
+      </c>
+      <c r="H98">
+        <v>1.07</v>
+      </c>
+      <c r="I98">
+        <v>0.89</v>
+      </c>
+      <c r="J98">
+        <v>1.27</v>
+      </c>
+      <c r="K98">
+        <v>0.99</v>
+      </c>
+      <c r="L98">
+        <v>0.89</v>
+      </c>
+      <c r="M98">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B99">
+        <v>260</v>
+      </c>
+      <c r="C99">
+        <v>110</v>
+      </c>
+      <c r="D99">
+        <v>403</v>
+      </c>
+      <c r="E99">
+        <v>327</v>
+      </c>
+      <c r="F99">
+        <v>190</v>
+      </c>
+      <c r="G99">
+        <v>454</v>
+      </c>
+      <c r="H99">
+        <v>0.88</v>
+      </c>
+      <c r="I99">
+        <v>0.69</v>
+      </c>
+      <c r="J99">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>
